--- a/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
+++ b/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/altagannon/OneDrive/Holgerson_Lab/DEC_Ponds/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09C899E-D30D-3E45-9E75-A8E449ABE934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1E405E-2D71-F44A-8C62-23C4FB594E97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
+++ b/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\DEC_Ponds\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA96C76-337B-4CEF-9F39-E049EC06624E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF35611-0C1B-4712-960A-DAB5683B2242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="960" windowWidth="25125" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="245">
   <si>
     <t xml:space="preserve">Pond Name </t>
   </si>
@@ -765,7 +765,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -801,6 +801,11 @@
       <sz val="9"/>
       <color rgb="FF1155CC"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1081,11 +1086,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1066"/>
+  <dimension ref="A1:Z1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G354" sqref="G354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8896,10 +8901,10 @@
         <v>37</v>
       </c>
       <c r="F353" s="4">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="G353" s="4">
-        <v>115</v>
+        <v>300</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -8916,10 +8921,10 @@
         <v>39</v>
       </c>
       <c r="F354" s="4">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G354" s="4">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -8936,10 +8941,10 @@
         <v>41</v>
       </c>
       <c r="F355" s="4">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="G355" s="4">
-        <v>272</v>
+        <v>135</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -8956,10 +8961,10 @@
         <v>43</v>
       </c>
       <c r="F356" s="4">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G356" s="4">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -8976,10 +8981,10 @@
         <v>45</v>
       </c>
       <c r="F357" s="4">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="G357" s="4">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -8996,10 +9001,10 @@
         <v>47</v>
       </c>
       <c r="F358" s="4">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="G358" s="4">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9016,30 +9021,30 @@
         <v>49</v>
       </c>
       <c r="F359" s="4">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="G359" s="4">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B360" s="5">
-        <v>44797</v>
+        <v>44791</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="F360" s="4">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G360" s="4">
-        <v>132</v>
+        <v>204</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9053,13 +9058,13 @@
         <v>208</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F361" s="4">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G361" s="4">
-        <v>194</v>
+        <v>132</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9073,13 +9078,13 @@
         <v>208</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F362" s="4">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="G362" s="4">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9093,13 +9098,13 @@
         <v>208</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F363" s="4">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="G363" s="4">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9113,13 +9118,13 @@
         <v>208</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F364" s="4">
-        <v>242</v>
+        <v>175</v>
       </c>
       <c r="G364" s="4">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9133,13 +9138,13 @@
         <v>208</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F365" s="4">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="G365" s="4">
-        <v>310</v>
+        <v>248</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9153,13 +9158,13 @@
         <v>208</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F366" s="4">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="G366" s="4">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9173,13 +9178,13 @@
         <v>208</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F367" s="4">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="G367" s="4">
-        <v>152</v>
+        <v>345</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9193,13 +9198,13 @@
         <v>208</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F368" s="4">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="G368" s="4">
-        <v>243</v>
+        <v>152</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9213,13 +9218,13 @@
         <v>208</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F369" s="4">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G369" s="4">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9233,13 +9238,13 @@
         <v>208</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F370" s="4">
-        <v>395</v>
+        <v>247</v>
       </c>
       <c r="G370" s="4">
-        <v>415</v>
+        <v>282</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9253,13 +9258,13 @@
         <v>208</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F371" s="4">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="G371" s="4">
-        <v>272</v>
+        <v>415</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9273,13 +9278,13 @@
         <v>208</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F372" s="4">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G372" s="4">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9293,13 +9298,13 @@
         <v>208</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F373" s="4">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="G373" s="4">
-        <v>388</v>
+        <v>278</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9313,13 +9318,13 @@
         <v>208</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F374" s="4">
         <v>380</v>
       </c>
       <c r="G374" s="4">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9333,13 +9338,13 @@
         <v>208</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F375" s="4">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="G375" s="4">
-        <v>338</v>
+        <v>385</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9353,13 +9358,13 @@
         <v>208</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F376" s="4">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="G376" s="4">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9373,13 +9378,13 @@
         <v>208</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F377" s="4">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G377" s="4">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9393,7 +9398,7 @@
         <v>208</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F378" s="4">
         <v>344</v>
@@ -9413,33 +9418,33 @@
         <v>208</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F379" s="4">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="G379" s="4">
-        <v>218</v>
+        <v>352</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B380" s="5">
-        <v>44799</v>
+        <v>44797</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="F380" s="4">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="G380" s="4">
-        <v>108</v>
+        <v>218</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9453,13 +9458,13 @@
         <v>210</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F381" s="4">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G381" s="4">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9473,13 +9478,13 @@
         <v>210</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F382" s="4">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="G382" s="4">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9493,13 +9498,13 @@
         <v>210</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F383" s="4">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G383" s="4">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9513,13 +9518,13 @@
         <v>210</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F384" s="4">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G384" s="4">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9533,13 +9538,13 @@
         <v>210</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F385" s="4">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="G385" s="4">
-        <v>102</v>
+        <v>154</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9553,13 +9558,13 @@
         <v>210</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F386" s="4">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G386" s="4">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9573,13 +9578,13 @@
         <v>210</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F387" s="4">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="G387" s="4">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9593,13 +9598,13 @@
         <v>210</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F388" s="4">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G388" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9613,13 +9618,13 @@
         <v>210</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F389" s="4">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G389" s="4">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9633,13 +9638,13 @@
         <v>210</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F390" s="4">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="G390" s="4">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9653,13 +9658,13 @@
         <v>210</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F391" s="4">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G391" s="4">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9673,10 +9678,10 @@
         <v>210</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F392" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G392" s="4">
         <v>135</v>
@@ -9693,13 +9698,13 @@
         <v>210</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F393" s="4">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G393" s="4">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9713,33 +9718,33 @@
         <v>210</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F394" s="4">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="G394" s="4">
-        <v>96</v>
+        <v>150</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B395" s="12">
-        <v>45175</v>
+        <v>209</v>
+      </c>
+      <c r="B395" s="5">
+        <v>44799</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="F395" s="4">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="G395" s="4">
-        <v>177</v>
+        <v>96</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9753,13 +9758,13 @@
         <v>212</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F396" s="4">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="G396" s="4">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9773,13 +9778,13 @@
         <v>212</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F397" s="4">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="G397" s="4">
-        <v>190</v>
+        <v>250</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9793,10 +9798,10 @@
         <v>212</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F398" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G398" s="4">
         <v>190</v>
@@ -9813,13 +9818,13 @@
         <v>212</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F399" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G399" s="4">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9833,13 +9838,13 @@
         <v>212</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F400" s="4">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="G400" s="4">
-        <v>310</v>
+        <v>250</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9853,13 +9858,13 @@
         <v>212</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F401" s="4">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G401" s="4">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9873,13 +9878,13 @@
         <v>212</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F402" s="4">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="G402" s="4">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9893,13 +9898,13 @@
         <v>212</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F403" s="4">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="G403" s="4">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9913,13 +9918,13 @@
         <v>212</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F404" s="4">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="G404" s="4">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9933,13 +9938,13 @@
         <v>212</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F405" s="4">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="G405" s="4">
-        <v>125</v>
+        <v>280</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9953,13 +9958,13 @@
         <v>212</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F406" s="4">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G406" s="4">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9973,13 +9978,13 @@
         <v>212</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F407" s="4">
-        <v>280</v>
+        <v>155</v>
       </c>
       <c r="G407" s="4">
-        <v>285</v>
+        <v>176</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -9993,13 +9998,13 @@
         <v>212</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F408" s="4">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="G408" s="4">
-        <v>350</v>
+        <v>285</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10013,13 +10018,13 @@
         <v>212</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F409" s="4">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G409" s="4">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10033,13 +10038,13 @@
         <v>212</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F410" s="4">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G410" s="4">
-        <v>345</v>
+        <v>310</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10053,13 +10058,13 @@
         <v>212</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F411" s="4">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="G411" s="4">
-        <v>392</v>
+        <v>345</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10073,13 +10078,13 @@
         <v>212</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F412" s="4">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="G412" s="4">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10093,13 +10098,13 @@
         <v>212</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F413" s="4">
-        <v>182</v>
+        <v>340</v>
       </c>
       <c r="G413" s="4">
-        <v>190</v>
+        <v>352</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10113,10 +10118,10 @@
         <v>212</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F414" s="4">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G414" s="4">
         <v>190</v>
@@ -10133,13 +10138,13 @@
         <v>212</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F415" s="4">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="G415" s="4">
-        <v>280</v>
+        <v>190</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10153,13 +10158,13 @@
         <v>212</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F416" s="4">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="G416" s="4">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10173,33 +10178,33 @@
         <v>212</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F417" s="4">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="G417" s="4">
-        <v>198</v>
+        <v>320</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B418" s="5">
-        <v>45110</v>
+        <v>211</v>
+      </c>
+      <c r="B418" s="12">
+        <v>45175</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="F418" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G418" s="4">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10213,13 +10218,13 @@
         <v>214</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F419" s="4">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="G419" s="4">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10233,10 +10238,10 @@
         <v>214</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F420" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G420" s="4">
         <v>245</v>
@@ -10253,13 +10258,13 @@
         <v>214</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F421" s="4">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="G421" s="4">
-        <v>180</v>
+        <v>245</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10273,13 +10278,13 @@
         <v>214</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F422" s="4">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="G422" s="4">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10293,13 +10298,13 @@
         <v>214</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F423" s="4">
         <v>245</v>
       </c>
       <c r="G423" s="4">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10313,13 +10318,13 @@
         <v>214</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F424" s="4">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="G424" s="4">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10333,13 +10338,13 @@
         <v>214</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F425" s="4">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="G425" s="4">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10353,13 +10358,13 @@
         <v>214</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F426" s="4">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G426" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10373,13 +10378,13 @@
         <v>214</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F427" s="4">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="G427" s="4">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="428" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10393,13 +10398,13 @@
         <v>214</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F428" s="4">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G428" s="4">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10413,13 +10418,13 @@
         <v>214</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F429" s="4">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G429" s="4">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10433,13 +10438,13 @@
         <v>214</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F430" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G430" s="4">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10453,13 +10458,13 @@
         <v>214</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F431" s="4">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="G431" s="4">
-        <v>165</v>
+        <v>235</v>
       </c>
     </row>
     <row r="432" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10473,13 +10478,13 @@
         <v>214</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F432" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G432" s="4">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10493,13 +10498,13 @@
         <v>214</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F433" s="4">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="G433" s="4">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10513,13 +10518,13 @@
         <v>214</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F434" s="4">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="G434" s="4">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10533,13 +10538,13 @@
         <v>214</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F435" s="4">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="G435" s="4">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="436" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10553,13 +10558,13 @@
         <v>214</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F436" s="4">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G436" s="4">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="437" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10573,13 +10578,13 @@
         <v>214</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F437" s="4">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="G437" s="4">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10593,13 +10598,13 @@
         <v>214</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F438" s="4">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G438" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10613,13 +10618,13 @@
         <v>214</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F439" s="4">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="G439" s="4">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10633,10 +10638,10 @@
         <v>214</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F440" s="4">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G440" s="4">
         <v>250</v>
@@ -10653,7 +10658,7 @@
         <v>214</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F441" s="4">
         <v>250</v>
@@ -10673,13 +10678,13 @@
         <v>214</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F442" s="4">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G442" s="4">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10693,13 +10698,13 @@
         <v>214</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F443" s="4">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="G443" s="4">
-        <v>175</v>
+        <v>245</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10713,13 +10718,13 @@
         <v>214</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F444" s="4">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="G444" s="4">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10733,13 +10738,13 @@
         <v>214</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F445" s="4">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G445" s="4">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10753,13 +10758,13 @@
         <v>214</v>
       </c>
       <c r="D446" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F446" s="4">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="G446" s="4">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10773,18 +10778,18 @@
         <v>214</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F447" s="4">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="G447" s="4">
-        <v>95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="448" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B448" s="5">
         <v>45110</v>
@@ -10793,13 +10798,13 @@
         <v>214</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F448" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G448" s="4">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10813,13 +10818,13 @@
         <v>214</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F449" s="4">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="G449" s="4">
-        <v>375</v>
+        <v>70</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10833,13 +10838,13 @@
         <v>214</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F450" s="4">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="G450" s="4">
-        <v>205</v>
+        <v>375</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10853,13 +10858,13 @@
         <v>214</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F451" s="4">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="G451" s="4">
-        <v>260</v>
+        <v>205</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10873,13 +10878,13 @@
         <v>214</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F452" s="4">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="G452" s="4">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10893,13 +10898,13 @@
         <v>214</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F453" s="4">
-        <v>235</v>
+        <v>100</v>
       </c>
       <c r="G453" s="4">
-        <v>250</v>
+        <v>115</v>
       </c>
     </row>
     <row r="454" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10913,13 +10918,13 @@
         <v>214</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F454" s="4">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="G454" s="4">
-        <v>385</v>
+        <v>250</v>
       </c>
     </row>
     <row r="455" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10933,13 +10938,13 @@
         <v>214</v>
       </c>
       <c r="D455" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F455" s="4">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="G455" s="4">
-        <v>217</v>
+        <v>385</v>
       </c>
     </row>
     <row r="456" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10953,13 +10958,13 @@
         <v>214</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F456" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G456" s="4">
-        <v>185</v>
+        <v>217</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10973,13 +10978,13 @@
         <v>214</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F457" s="4">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="G457" s="4">
-        <v>350</v>
+        <v>185</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10993,13 +10998,13 @@
         <v>214</v>
       </c>
       <c r="D458" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F458" s="4">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="G458" s="4">
-        <v>410</v>
+        <v>350</v>
       </c>
     </row>
     <row r="459" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11013,13 +11018,13 @@
         <v>214</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F459" s="4">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="G459" s="4">
-        <v>130</v>
+        <v>410</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11033,13 +11038,13 @@
         <v>214</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F460" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G460" s="4">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="461" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11053,13 +11058,13 @@
         <v>214</v>
       </c>
       <c r="D461" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F461" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G461" s="4">
-        <v>385</v>
+        <v>115</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11073,13 +11078,13 @@
         <v>214</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F462" s="4">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="G462" s="4">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11093,13 +11098,13 @@
         <v>214</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F463" s="4">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="G463" s="4">
-        <v>270</v>
+        <v>372</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11113,13 +11118,13 @@
         <v>214</v>
       </c>
       <c r="D464" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F464" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G464" s="4">
-        <v>205</v>
+        <v>270</v>
       </c>
     </row>
     <row r="465" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11133,13 +11138,13 @@
         <v>214</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F465" s="4">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="G465" s="4">
-        <v>375</v>
+        <v>205</v>
       </c>
     </row>
     <row r="466" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11153,13 +11158,13 @@
         <v>214</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F466" s="4">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="G466" s="4">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11173,13 +11178,13 @@
         <v>214</v>
       </c>
       <c r="D467" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F467" s="4">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="G467" s="4">
-        <v>175</v>
+        <v>332</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11193,13 +11198,13 @@
         <v>214</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F468" s="4">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="G468" s="4">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="469" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11213,13 +11218,13 @@
         <v>214</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F469" s="4">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="G469" s="4">
-        <v>330</v>
+        <v>230</v>
       </c>
     </row>
     <row r="470" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11233,13 +11238,13 @@
         <v>214</v>
       </c>
       <c r="D470" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F470" s="4">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="G470" s="4">
-        <v>180</v>
+        <v>330</v>
       </c>
     </row>
     <row r="471" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11253,13 +11258,13 @@
         <v>214</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F471" s="4">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="G471" s="4">
-        <v>310</v>
+        <v>180</v>
       </c>
     </row>
     <row r="472" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11273,13 +11278,13 @@
         <v>214</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F472" s="4">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G472" s="4">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="473" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11293,13 +11298,13 @@
         <v>214</v>
       </c>
       <c r="D473" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F473" s="4">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="G473" s="4">
-        <v>145</v>
+        <v>260</v>
       </c>
     </row>
     <row r="474" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11313,13 +11318,13 @@
         <v>214</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F474" s="4">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="G474" s="4">
-        <v>210</v>
+        <v>145</v>
       </c>
     </row>
     <row r="475" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11333,13 +11338,13 @@
         <v>214</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F475" s="4">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="G475" s="4">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="476" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11353,13 +11358,13 @@
         <v>214</v>
       </c>
       <c r="D476" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F476" s="4">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G476" s="4">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="477" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11373,33 +11378,33 @@
         <v>214</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F477" s="4">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="G477" s="4">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="478" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B478" s="5">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F478" s="4">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="G478" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="479" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11413,13 +11418,13 @@
         <v>214</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F479" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G479" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="480" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11433,13 +11438,13 @@
         <v>214</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F480" s="4">
         <v>70</v>
       </c>
       <c r="G480" s="4">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="481" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11453,13 +11458,13 @@
         <v>214</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F481" s="4">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G481" s="4">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="482" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11473,13 +11478,13 @@
         <v>214</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F482" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G482" s="4">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="483" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11493,13 +11498,13 @@
         <v>214</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F483" s="4">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G483" s="4">
-        <v>135</v>
+        <v>85</v>
       </c>
     </row>
     <row r="484" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11513,13 +11518,13 @@
         <v>214</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F484" s="4">
         <v>115</v>
       </c>
       <c r="G484" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="485" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11533,13 +11538,13 @@
         <v>214</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F485" s="4">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="G485" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="486" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11553,10 +11558,10 @@
         <v>214</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F486" s="4">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G486" s="4">
         <v>150</v>
@@ -11573,13 +11578,13 @@
         <v>214</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F487" s="4">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G487" s="4">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="488" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11593,13 +11598,13 @@
         <v>214</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F488" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G488" s="4">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="489" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11613,13 +11618,13 @@
         <v>214</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F489" s="4">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G489" s="4">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="490" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11633,13 +11638,13 @@
         <v>214</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F490" s="4">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G490" s="4">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="491" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11653,13 +11658,13 @@
         <v>214</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F491" s="4">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G491" s="4">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="492" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11673,13 +11678,13 @@
         <v>214</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F492" s="4">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="G492" s="4">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="493" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11693,13 +11698,13 @@
         <v>214</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F493" s="4">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G493" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="494" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11713,13 +11718,13 @@
         <v>214</v>
       </c>
       <c r="D494" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F494" s="4">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="G494" s="4">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="495" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11733,13 +11738,13 @@
         <v>214</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F495" s="4">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="G495" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="496" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11753,13 +11758,13 @@
         <v>214</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F496" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G496" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="497" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11773,13 +11778,13 @@
         <v>214</v>
       </c>
       <c r="D497" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F497" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G497" s="4">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="498" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11793,13 +11798,13 @@
         <v>214</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F498" s="4">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="G498" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="499" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11813,13 +11818,13 @@
         <v>214</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F499" s="4">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="G499" s="4">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="500" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11833,13 +11838,13 @@
         <v>214</v>
       </c>
       <c r="D500" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F500" s="4">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G500" s="4">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="501" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11853,10 +11858,10 @@
         <v>214</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F501" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G501" s="4">
         <v>250</v>
@@ -11873,13 +11878,13 @@
         <v>214</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F502" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G502" s="4">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="503" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11893,13 +11898,13 @@
         <v>214</v>
       </c>
       <c r="D503" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F503" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G503" s="4">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="504" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11913,13 +11918,13 @@
         <v>214</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F504" s="4">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="G504" s="4">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="505" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11933,13 +11938,13 @@
         <v>214</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F505" s="4">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G505" s="4">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="506" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11953,13 +11958,13 @@
         <v>214</v>
       </c>
       <c r="D506" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F506" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G506" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="507" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -11973,33 +11978,33 @@
         <v>214</v>
       </c>
       <c r="D507" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F507" s="4">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="G507" s="4">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="508" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B508" s="12">
-        <v>45114</v>
+        <v>216</v>
+      </c>
+      <c r="B508" s="5">
+        <v>45104</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D508" s="6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F508" s="4">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="G508" s="4">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="509" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12013,13 +12018,13 @@
         <v>218</v>
       </c>
       <c r="D509" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F509" s="4">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G509" s="4">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="510" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12033,10 +12038,10 @@
         <v>218</v>
       </c>
       <c r="D510" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F510" s="4">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G510" s="4">
         <v>205</v>
@@ -12053,13 +12058,13 @@
         <v>218</v>
       </c>
       <c r="D511" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F511" s="4">
+        <v>195</v>
+      </c>
+      <c r="G511" s="4">
         <v>205</v>
-      </c>
-      <c r="G511" s="4">
-        <v>215</v>
       </c>
     </row>
     <row r="512" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12073,13 +12078,13 @@
         <v>218</v>
       </c>
       <c r="D512" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F512" s="4">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="G512" s="4">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="513" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12093,13 +12098,13 @@
         <v>218</v>
       </c>
       <c r="D513" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F513" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="G513" s="4">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="514" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12113,7 +12118,7 @@
         <v>218</v>
       </c>
       <c r="D514" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F514" s="4">
         <v>250</v>
@@ -12133,13 +12138,13 @@
         <v>218</v>
       </c>
       <c r="D515" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F515" s="4">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="G515" s="4">
-        <v>175</v>
+        <v>260</v>
       </c>
     </row>
     <row r="516" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12153,13 +12158,13 @@
         <v>218</v>
       </c>
       <c r="D516" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F516" s="4">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="G516" s="4">
-        <v>145</v>
+        <v>175</v>
       </c>
     </row>
     <row r="517" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12173,13 +12178,13 @@
         <v>218</v>
       </c>
       <c r="D517" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F517" s="4">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="G517" s="4">
-        <v>240</v>
+        <v>145</v>
       </c>
     </row>
     <row r="518" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12193,13 +12198,13 @@
         <v>218</v>
       </c>
       <c r="D518" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F518" s="4">
+        <v>230</v>
+      </c>
+      <c r="G518" s="4">
         <v>240</v>
-      </c>
-      <c r="G518" s="4">
-        <v>245</v>
       </c>
     </row>
     <row r="519" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12213,13 +12218,13 @@
         <v>218</v>
       </c>
       <c r="D519" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F519" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G519" s="4">
-        <v>185</v>
+        <v>245</v>
       </c>
     </row>
     <row r="520" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12233,13 +12238,13 @@
         <v>218</v>
       </c>
       <c r="D520" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F520" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G520" s="4">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="521" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12253,13 +12258,13 @@
         <v>218</v>
       </c>
       <c r="D521" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F521" s="4">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G521" s="4">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="522" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12273,13 +12278,13 @@
         <v>218</v>
       </c>
       <c r="D522" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F522" s="4">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G522" s="4">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="523" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12293,13 +12298,13 @@
         <v>218</v>
       </c>
       <c r="D523" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F523" s="4">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="G523" s="4">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="524" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12313,13 +12318,13 @@
         <v>218</v>
       </c>
       <c r="D524" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F524" s="4">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="G524" s="4">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="525" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12333,13 +12338,13 @@
         <v>218</v>
       </c>
       <c r="D525" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F525" s="4">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G525" s="4">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="526" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12353,13 +12358,13 @@
         <v>218</v>
       </c>
       <c r="D526" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F526" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G526" s="4">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="527" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12373,13 +12378,13 @@
         <v>218</v>
       </c>
       <c r="D527" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F527" s="4">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G527" s="4">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="528" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12393,13 +12398,13 @@
         <v>218</v>
       </c>
       <c r="D528" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F528" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G528" s="4">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="529" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12413,13 +12418,13 @@
         <v>218</v>
       </c>
       <c r="D529" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F529" s="4">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G529" s="4">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="530" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12433,13 +12438,13 @@
         <v>218</v>
       </c>
       <c r="D530" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F530" s="4">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="G530" s="4">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="531" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12453,13 +12458,13 @@
         <v>218</v>
       </c>
       <c r="D531" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F531" s="4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G531" s="4">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="532" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12473,13 +12478,13 @@
         <v>218</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F532" s="4">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G532" s="4">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="533" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12493,13 +12498,13 @@
         <v>218</v>
       </c>
       <c r="D533" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F533" s="4">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G533" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="534" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12513,33 +12518,33 @@
         <v>218</v>
       </c>
       <c r="D534" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F534" s="4">
+        <v>105</v>
+      </c>
+      <c r="G534" s="4">
         <v>110</v>
-      </c>
-      <c r="G534" s="4">
-        <v>115</v>
       </c>
     </row>
     <row r="535" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B535" s="12">
-        <v>45105</v>
+        <v>45114</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D535" s="6" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="F535" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G535" s="4">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="536" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12553,13 +12558,13 @@
         <v>220</v>
       </c>
       <c r="D536" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F536" s="4">
+        <v>120</v>
+      </c>
+      <c r="G536" s="4">
         <v>130</v>
-      </c>
-      <c r="G536" s="4">
-        <v>170</v>
       </c>
     </row>
     <row r="537" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12573,13 +12578,13 @@
         <v>220</v>
       </c>
       <c r="D537" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F537" s="4">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="G537" s="4">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="538" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12593,13 +12598,13 @@
         <v>220</v>
       </c>
       <c r="D538" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F538" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G538" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="539" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12613,13 +12618,13 @@
         <v>220</v>
       </c>
       <c r="D539" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F539" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G539" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="540" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12633,13 +12638,13 @@
         <v>220</v>
       </c>
       <c r="D540" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F540" s="4">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G540" s="4">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="541" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12653,13 +12658,13 @@
         <v>220</v>
       </c>
       <c r="D541" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F541" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G541" s="4">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="542" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12673,10 +12678,10 @@
         <v>220</v>
       </c>
       <c r="D542" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F542" s="4">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G542" s="4">
         <v>150</v>
@@ -12693,13 +12698,13 @@
         <v>220</v>
       </c>
       <c r="D543" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F543" s="4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="G543" s="4">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="544" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12713,13 +12718,13 @@
         <v>220</v>
       </c>
       <c r="D544" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F544" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G544" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="545" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12733,13 +12738,13 @@
         <v>220</v>
       </c>
       <c r="D545" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F545" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G545" s="4">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="546" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12753,7 +12758,7 @@
         <v>220</v>
       </c>
       <c r="D546" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F546" s="4">
         <v>200</v>
@@ -12773,13 +12778,13 @@
         <v>220</v>
       </c>
       <c r="D547" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F547" s="4">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G547" s="4">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="548" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12793,13 +12798,13 @@
         <v>220</v>
       </c>
       <c r="D548" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F548" s="4">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="G548" s="4">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="549" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12813,13 +12818,13 @@
         <v>220</v>
       </c>
       <c r="D549" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F549" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G549" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="550" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12833,13 +12838,13 @@
         <v>220</v>
       </c>
       <c r="D550" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F550" s="4">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G550" s="4">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="551" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12853,13 +12858,13 @@
         <v>220</v>
       </c>
       <c r="D551" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F551" s="4">
+        <v>180</v>
+      </c>
+      <c r="G551" s="4">
         <v>210</v>
-      </c>
-      <c r="G551" s="4">
-        <v>270</v>
       </c>
     </row>
     <row r="552" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12873,13 +12878,13 @@
         <v>220</v>
       </c>
       <c r="D552" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F552" s="4">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="G552" s="4">
-        <v>130</v>
+        <v>270</v>
       </c>
     </row>
     <row r="553" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12893,13 +12898,13 @@
         <v>220</v>
       </c>
       <c r="D553" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F553" s="4">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G553" s="4">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12913,13 +12918,13 @@
         <v>220</v>
       </c>
       <c r="D554" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F554" s="4">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G554" s="4">
-        <v>240</v>
+        <v>110</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12933,13 +12938,13 @@
         <v>220</v>
       </c>
       <c r="D555" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F555" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G555" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12953,13 +12958,13 @@
         <v>220</v>
       </c>
       <c r="D556" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F556" s="4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G556" s="4">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12973,13 +12978,13 @@
         <v>220</v>
       </c>
       <c r="D557" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F557" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G557" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="558" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -12993,13 +12998,13 @@
         <v>220</v>
       </c>
       <c r="D558" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F558" s="4">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="G558" s="4">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="559" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13013,33 +13018,33 @@
         <v>220</v>
       </c>
       <c r="D559" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F559" s="4">
         <v>110</v>
       </c>
       <c r="G559" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B560" s="12">
-        <v>45113</v>
+        <v>45105</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D560" s="6" t="s">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="F560" s="4">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="G560" s="4">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="561" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13053,13 +13058,13 @@
         <v>222</v>
       </c>
       <c r="D561" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F561" s="4">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G561" s="4">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="562" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13073,13 +13078,13 @@
         <v>222</v>
       </c>
       <c r="D562" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F562" s="4">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G562" s="4">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="563" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13093,13 +13098,13 @@
         <v>222</v>
       </c>
       <c r="D563" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F563" s="4">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="G563" s="4">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="564" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13113,13 +13118,13 @@
         <v>222</v>
       </c>
       <c r="D564" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F564" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G564" s="4">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="565" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13133,13 +13138,13 @@
         <v>222</v>
       </c>
       <c r="D565" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F565" s="4">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="G565" s="4">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="566" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13153,13 +13158,13 @@
         <v>222</v>
       </c>
       <c r="D566" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F566" s="4">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G566" s="4">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="567" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13173,13 +13178,13 @@
         <v>222</v>
       </c>
       <c r="D567" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F567" s="4">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G567" s="4">
-        <v>290</v>
+        <v>350</v>
       </c>
     </row>
     <row r="568" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13193,13 +13198,13 @@
         <v>222</v>
       </c>
       <c r="D568" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F568" s="4">
         <v>280</v>
       </c>
       <c r="G568" s="4">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13213,13 +13218,13 @@
         <v>222</v>
       </c>
       <c r="D569" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F569" s="4">
+        <v>280</v>
+      </c>
+      <c r="G569" s="4">
         <v>300</v>
-      </c>
-      <c r="G569" s="4">
-        <v>320</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13233,13 +13238,13 @@
         <v>222</v>
       </c>
       <c r="D570" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F570" s="4">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G570" s="4">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13253,13 +13258,13 @@
         <v>222</v>
       </c>
       <c r="D571" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F571" s="4">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="G571" s="4">
-        <v>230</v>
+        <v>340</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13273,13 +13278,13 @@
         <v>222</v>
       </c>
       <c r="D572" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F572" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G572" s="4">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13293,13 +13298,13 @@
         <v>222</v>
       </c>
       <c r="D573" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F573" s="4">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="G573" s="4">
-        <v>320</v>
+        <v>210</v>
       </c>
     </row>
     <row r="574" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13313,13 +13318,13 @@
         <v>222</v>
       </c>
       <c r="D574" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F574" s="4">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G574" s="4">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13333,7 +13338,7 @@
         <v>222</v>
       </c>
       <c r="D575" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F575" s="4">
         <v>310</v>
@@ -13353,13 +13358,13 @@
         <v>222</v>
       </c>
       <c r="D576" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F576" s="4">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G576" s="4">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="577" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13373,13 +13378,13 @@
         <v>222</v>
       </c>
       <c r="D577" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F577" s="4">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G577" s="4">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="578" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13393,13 +13398,13 @@
         <v>222</v>
       </c>
       <c r="D578" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F578" s="4">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="G578" s="4">
-        <v>290</v>
+        <v>240</v>
       </c>
     </row>
     <row r="579" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13413,13 +13418,13 @@
         <v>222</v>
       </c>
       <c r="D579" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F579" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G579" s="4">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="580" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13433,13 +13438,13 @@
         <v>222</v>
       </c>
       <c r="D580" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F580" s="4">
         <v>300</v>
       </c>
       <c r="G580" s="4">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="581" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13453,13 +13458,13 @@
         <v>222</v>
       </c>
       <c r="D581" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F581" s="4">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="G581" s="4">
-        <v>210</v>
+        <v>330</v>
       </c>
     </row>
     <row r="582" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13473,13 +13478,13 @@
         <v>222</v>
       </c>
       <c r="D582" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F582" s="4">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="G582" s="4">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="583" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13493,13 +13498,13 @@
         <v>222</v>
       </c>
       <c r="D583" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F583" s="4">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="G583" s="4">
-        <v>310</v>
+        <v>170</v>
       </c>
     </row>
     <row r="584" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13513,10 +13518,10 @@
         <v>222</v>
       </c>
       <c r="D584" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F584" s="4">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G584" s="4">
         <v>310</v>
@@ -13533,13 +13538,13 @@
         <v>222</v>
       </c>
       <c r="D585" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F585" s="4">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="G585" s="4">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="586" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13553,13 +13558,13 @@
         <v>222</v>
       </c>
       <c r="D586" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F586" s="4">
         <v>270</v>
       </c>
       <c r="G586" s="4">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="587" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13573,13 +13578,13 @@
         <v>222</v>
       </c>
       <c r="D587" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F587" s="4">
         <v>270</v>
       </c>
       <c r="G587" s="4">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="588" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13593,7 +13598,7 @@
         <v>222</v>
       </c>
       <c r="D588" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F588" s="4">
         <v>270</v>
@@ -13613,13 +13618,13 @@
         <v>222</v>
       </c>
       <c r="D589" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F589" s="4">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G589" s="4">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="590" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13633,13 +13638,13 @@
         <v>222</v>
       </c>
       <c r="D590" s="6" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F590" s="4">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G590" s="4">
-        <v>240</v>
+        <v>280</v>
       </c>
     </row>
     <row r="591" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13653,13 +13658,13 @@
         <v>222</v>
       </c>
       <c r="D591" s="6" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="F591" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G591" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="592" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13673,13 +13678,13 @@
         <v>222</v>
       </c>
       <c r="D592" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F592" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="G592" s="4">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="593" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13693,13 +13698,13 @@
         <v>222</v>
       </c>
       <c r="D593" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F593" s="4">
+        <v>270</v>
+      </c>
+      <c r="G593" s="4">
         <v>280</v>
-      </c>
-      <c r="G593" s="4">
-        <v>290</v>
       </c>
     </row>
     <row r="594" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13713,13 +13718,13 @@
         <v>222</v>
       </c>
       <c r="D594" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F594" s="4">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G594" s="4">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="595" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13733,13 +13738,13 @@
         <v>222</v>
       </c>
       <c r="D595" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F595" s="4">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G595" s="4">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="596" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13753,13 +13758,13 @@
         <v>222</v>
       </c>
       <c r="D596" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F596" s="4">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G596" s="4">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="597" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13773,13 +13778,13 @@
         <v>222</v>
       </c>
       <c r="D597" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F597" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G597" s="4">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="598" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13793,13 +13798,13 @@
         <v>222</v>
       </c>
       <c r="D598" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F598" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G598" s="4">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="599" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13813,33 +13818,33 @@
         <v>222</v>
       </c>
       <c r="D599" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F599" s="4">
         <v>200</v>
       </c>
       <c r="G599" s="4">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="600" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B600" s="12">
-        <v>45104</v>
+        <v>45113</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D600" s="6" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="F600" s="4">
+        <v>200</v>
+      </c>
+      <c r="G600" s="4">
         <v>220</v>
-      </c>
-      <c r="G600" s="4">
-        <v>245</v>
       </c>
     </row>
     <row r="601" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13853,13 +13858,13 @@
         <v>218</v>
       </c>
       <c r="D601" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F601" s="4">
-        <v>510</v>
-      </c>
-      <c r="G601" s="4" t="s">
-        <v>233</v>
+        <v>220</v>
+      </c>
+      <c r="G601" s="4">
+        <v>245</v>
       </c>
     </row>
     <row r="602" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13873,10 +13878,10 @@
         <v>218</v>
       </c>
       <c r="D602" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F602" s="4">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="G602" s="4" t="s">
         <v>233</v>
@@ -13893,13 +13898,13 @@
         <v>218</v>
       </c>
       <c r="D603" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F603" s="4">
-        <v>240</v>
-      </c>
-      <c r="G603" s="4">
-        <v>240</v>
+        <v>420</v>
+      </c>
+      <c r="G603" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="604" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13913,13 +13918,13 @@
         <v>218</v>
       </c>
       <c r="D604" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F604" s="4">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G604" s="4">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="605" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13933,13 +13938,13 @@
         <v>218</v>
       </c>
       <c r="D605" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F605" s="4">
-        <v>340</v>
-      </c>
-      <c r="G605" s="4" t="s">
-        <v>233</v>
+        <v>200</v>
+      </c>
+      <c r="G605" s="4">
+        <v>235</v>
       </c>
     </row>
     <row r="606" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -13953,10 +13958,10 @@
         <v>218</v>
       </c>
       <c r="D606" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F606" s="4">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="G606" s="4" t="s">
         <v>233</v>
@@ -13973,10 +13978,10 @@
         <v>218</v>
       </c>
       <c r="D607" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F607" s="4">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="G607" s="4" t="s">
         <v>233</v>
@@ -13993,13 +13998,13 @@
         <v>218</v>
       </c>
       <c r="D608" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F608" s="4">
-        <v>320</v>
-      </c>
-      <c r="G608" s="4">
-        <v>327</v>
+        <v>520</v>
+      </c>
+      <c r="G608" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="609" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14013,13 +14018,13 @@
         <v>218</v>
       </c>
       <c r="D609" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F609" s="4">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G609" s="4">
-        <v>390</v>
+        <v>327</v>
       </c>
     </row>
     <row r="610" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14033,13 +14038,13 @@
         <v>218</v>
       </c>
       <c r="D610" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F610" s="4">
-        <v>450</v>
-      </c>
-      <c r="G610" s="4" t="s">
-        <v>233</v>
+        <v>310</v>
+      </c>
+      <c r="G610" s="4">
+        <v>390</v>
       </c>
     </row>
     <row r="611" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14053,13 +14058,13 @@
         <v>218</v>
       </c>
       <c r="D611" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F611" s="4">
-        <v>320</v>
-      </c>
-      <c r="G611" s="4">
-        <v>385</v>
+        <v>450</v>
+      </c>
+      <c r="G611" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="612" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14073,13 +14078,13 @@
         <v>218</v>
       </c>
       <c r="D612" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F612" s="4">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="G612" s="4">
-        <v>280</v>
+        <v>385</v>
       </c>
     </row>
     <row r="613" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14093,13 +14098,13 @@
         <v>218</v>
       </c>
       <c r="D613" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F613" s="4">
-        <v>410</v>
-      </c>
-      <c r="G613" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="G613" s="4">
+        <v>280</v>
       </c>
     </row>
     <row r="614" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14113,10 +14118,10 @@
         <v>218</v>
       </c>
       <c r="D614" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F614" s="4">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="G614" s="4" t="s">
         <v>233</v>
@@ -14133,13 +14138,13 @@
         <v>218</v>
       </c>
       <c r="D615" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F615" s="4">
-        <v>340</v>
-      </c>
-      <c r="G615" s="4">
-        <v>350</v>
+        <v>460</v>
+      </c>
+      <c r="G615" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="616" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14153,13 +14158,13 @@
         <v>218</v>
       </c>
       <c r="D616" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F616" s="4">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="G616" s="4">
-        <v>305</v>
+        <v>350</v>
       </c>
     </row>
     <row r="617" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14173,13 +14178,13 @@
         <v>218</v>
       </c>
       <c r="D617" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F617" s="4">
-        <v>430</v>
-      </c>
-      <c r="G617" s="4" t="s">
-        <v>233</v>
+        <v>274</v>
+      </c>
+      <c r="G617" s="4">
+        <v>305</v>
       </c>
     </row>
     <row r="618" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14193,13 +14198,13 @@
         <v>218</v>
       </c>
       <c r="D618" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F618" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="G618" s="4">
-        <v>400</v>
+        <v>430</v>
+      </c>
+      <c r="G618" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="619" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14213,13 +14218,13 @@
         <v>218</v>
       </c>
       <c r="D619" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F619" s="4">
-        <v>175</v>
+        <v>3.8</v>
       </c>
       <c r="G619" s="4">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="620" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14233,13 +14238,13 @@
         <v>218</v>
       </c>
       <c r="D620" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F620" s="4">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="G620" s="4">
-        <v>370</v>
+        <v>220</v>
       </c>
     </row>
     <row r="621" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14253,13 +14258,13 @@
         <v>218</v>
       </c>
       <c r="D621" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F621" s="4">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="G621" s="4">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="622" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14273,13 +14278,13 @@
         <v>218</v>
       </c>
       <c r="D622" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F622" s="4">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="G622" s="4">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="623" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14293,13 +14298,13 @@
         <v>218</v>
       </c>
       <c r="D623" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F623" s="4">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="G623" s="4">
-        <v>375</v>
+        <v>280</v>
       </c>
     </row>
     <row r="624" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14313,13 +14318,13 @@
         <v>218</v>
       </c>
       <c r="D624" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F624" s="4">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G624" s="4">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="625" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14333,13 +14338,13 @@
         <v>218</v>
       </c>
       <c r="D625" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F625" s="4">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="G625" s="4">
-        <v>190</v>
+        <v>395</v>
       </c>
     </row>
     <row r="626" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14353,13 +14358,13 @@
         <v>218</v>
       </c>
       <c r="D626" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F626" s="4">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G626" s="4">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="627" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14373,13 +14378,13 @@
         <v>218</v>
       </c>
       <c r="D627" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F627" s="4">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G627" s="4">
-        <v>260</v>
+        <v>170</v>
       </c>
     </row>
     <row r="628" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14393,13 +14398,13 @@
         <v>218</v>
       </c>
       <c r="D628" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F628" s="4">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="G628" s="4">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="629" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14413,33 +14418,33 @@
         <v>218</v>
       </c>
       <c r="D629" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F629" s="4">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="G629" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="630" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B630" s="12">
-        <v>45113</v>
+        <v>45104</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D630" s="6" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="F630" s="4">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="G630" s="4">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="631" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14453,13 +14458,13 @@
         <v>222</v>
       </c>
       <c r="D631" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F631" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G631" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="632" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14473,13 +14478,13 @@
         <v>222</v>
       </c>
       <c r="D632" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F632" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G632" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="633" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14493,7 +14498,7 @@
         <v>222</v>
       </c>
       <c r="D633" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F633" s="4">
         <v>100</v>
@@ -14513,7 +14518,7 @@
         <v>222</v>
       </c>
       <c r="D634" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F634" s="4">
         <v>100</v>
@@ -14533,13 +14538,13 @@
         <v>222</v>
       </c>
       <c r="D635" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F635" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G635" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="636" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14553,13 +14558,13 @@
         <v>222</v>
       </c>
       <c r="D636" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F636" s="4">
         <v>90</v>
       </c>
       <c r="G636" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="637" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14573,13 +14578,13 @@
         <v>222</v>
       </c>
       <c r="D637" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F637" s="4">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G637" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="638" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14593,13 +14598,13 @@
         <v>222</v>
       </c>
       <c r="D638" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F638" s="4">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G638" s="4">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="639" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14613,7 +14618,7 @@
         <v>222</v>
       </c>
       <c r="D639" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F639" s="4">
         <v>110</v>
@@ -14633,10 +14638,10 @@
         <v>222</v>
       </c>
       <c r="D640" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F640" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G640" s="4">
         <v>120</v>
@@ -14653,10 +14658,10 @@
         <v>222</v>
       </c>
       <c r="D641" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F641" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G641" s="4">
         <v>120</v>
@@ -14673,13 +14678,13 @@
         <v>222</v>
       </c>
       <c r="D642" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F642" s="4">
         <v>110</v>
       </c>
       <c r="G642" s="4">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="643" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14693,13 +14698,13 @@
         <v>222</v>
       </c>
       <c r="D643" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F643" s="4">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="G643" s="4">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="644" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14713,13 +14718,13 @@
         <v>222</v>
       </c>
       <c r="D644" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F644" s="4">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G644" s="4">
-        <v>110</v>
+        <v>70</v>
       </c>
     </row>
     <row r="645" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14733,13 +14738,13 @@
         <v>222</v>
       </c>
       <c r="D645" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F645" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G645" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="646" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14753,13 +14758,13 @@
         <v>222</v>
       </c>
       <c r="D646" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F646" s="4">
+        <v>95</v>
+      </c>
+      <c r="G646" s="4">
         <v>100</v>
-      </c>
-      <c r="G646" s="4">
-        <v>105</v>
       </c>
     </row>
     <row r="647" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14773,13 +14778,13 @@
         <v>222</v>
       </c>
       <c r="D647" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F647" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G647" s="4">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="648" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14793,13 +14798,13 @@
         <v>222</v>
       </c>
       <c r="D648" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F648" s="4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G648" s="4">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="649" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14813,13 +14818,13 @@
         <v>222</v>
       </c>
       <c r="D649" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F649" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G649" s="4">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="650" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14833,10 +14838,10 @@
         <v>222</v>
       </c>
       <c r="D650" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F650" s="4">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G650" s="4">
         <v>140</v>
@@ -14853,13 +14858,13 @@
         <v>222</v>
       </c>
       <c r="D651" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F651" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G651" s="4">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="652" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14873,13 +14878,13 @@
         <v>222</v>
       </c>
       <c r="D652" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F652" s="4">
+        <v>120</v>
+      </c>
+      <c r="G652" s="4">
         <v>125</v>
-      </c>
-      <c r="G652" s="4">
-        <v>130</v>
       </c>
     </row>
     <row r="653" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14893,7 +14898,7 @@
         <v>222</v>
       </c>
       <c r="D653" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F653" s="4">
         <v>125</v>
@@ -14913,13 +14918,13 @@
         <v>222</v>
       </c>
       <c r="D654" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F654" s="4">
+        <v>125</v>
+      </c>
+      <c r="G654" s="4">
         <v>130</v>
-      </c>
-      <c r="G654" s="4">
-        <v>140</v>
       </c>
     </row>
     <row r="655" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14933,10 +14938,10 @@
         <v>222</v>
       </c>
       <c r="D655" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F655" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G655" s="4">
         <v>140</v>
@@ -14953,13 +14958,13 @@
         <v>222</v>
       </c>
       <c r="D656" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F656" s="4">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G656" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="657" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14973,13 +14978,13 @@
         <v>222</v>
       </c>
       <c r="D657" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F657" s="4">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G657" s="4">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="658" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -14993,13 +14998,13 @@
         <v>222</v>
       </c>
       <c r="D658" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F658" s="4">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G658" s="4">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="659" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15013,13 +15018,13 @@
         <v>222</v>
       </c>
       <c r="D659" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F659" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G659" s="4">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="660" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15033,13 +15038,13 @@
         <v>222</v>
       </c>
       <c r="D660" s="6" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F660" s="4">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G660" s="4">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="661" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15053,13 +15058,13 @@
         <v>222</v>
       </c>
       <c r="D661" s="6" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="F661" s="4">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="G661" s="4">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="662" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15073,13 +15078,13 @@
         <v>222</v>
       </c>
       <c r="D662" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F662" s="4">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G662" s="4">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="663" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15093,13 +15098,13 @@
         <v>222</v>
       </c>
       <c r="D663" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F663" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G663" s="4">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="664" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15113,13 +15118,13 @@
         <v>222</v>
       </c>
       <c r="D664" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F664" s="4">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="G664" s="4">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="665" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15133,13 +15138,13 @@
         <v>222</v>
       </c>
       <c r="D665" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F665" s="4">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="G665" s="4">
-        <v>190</v>
+        <v>250</v>
       </c>
     </row>
     <row r="666" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15153,13 +15158,13 @@
         <v>222</v>
       </c>
       <c r="D666" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F666" s="4">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G666" s="4">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="667" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15173,13 +15178,13 @@
         <v>222</v>
       </c>
       <c r="D667" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F667" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G667" s="4">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="668" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15193,13 +15198,13 @@
         <v>222</v>
       </c>
       <c r="D668" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F668" s="4">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G668" s="4">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="669" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15213,33 +15218,33 @@
         <v>222</v>
       </c>
       <c r="D669" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F669" s="4">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G669" s="4">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="670" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B670" s="12">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D670" s="6" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="F670" s="4">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G670" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="671" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15253,13 +15258,13 @@
         <v>236</v>
       </c>
       <c r="D671" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F671" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G671" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="672" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15273,13 +15278,13 @@
         <v>236</v>
       </c>
       <c r="D672" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F672" s="4">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G672" s="4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="673" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15293,13 +15298,13 @@
         <v>236</v>
       </c>
       <c r="D673" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F673" s="4">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G673" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="674" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15313,13 +15318,13 @@
         <v>236</v>
       </c>
       <c r="D674" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F674" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="G674" s="4">
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="675" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15333,13 +15338,13 @@
         <v>236</v>
       </c>
       <c r="D675" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F675" s="4">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G675" s="4">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="676" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15353,13 +15358,13 @@
         <v>236</v>
       </c>
       <c r="D676" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F676" s="4">
         <v>200</v>
       </c>
-      <c r="F676" s="4">
-        <v>190</v>
-      </c>
       <c r="G676" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="677" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15373,13 +15378,13 @@
         <v>236</v>
       </c>
       <c r="D677" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F677" s="4">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="G677" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="678" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15393,13 +15398,13 @@
         <v>236</v>
       </c>
       <c r="D678" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F678" s="4">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G678" s="4">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="679" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15413,13 +15418,13 @@
         <v>236</v>
       </c>
       <c r="D679" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F679" s="4">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="G679" s="4">
-        <v>170</v>
+        <v>250</v>
       </c>
     </row>
     <row r="680" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15433,13 +15438,13 @@
         <v>236</v>
       </c>
       <c r="D680" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F680" s="4">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="G680" s="4">
-        <v>300</v>
+        <v>170</v>
       </c>
     </row>
     <row r="681" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15453,13 +15458,13 @@
         <v>236</v>
       </c>
       <c r="D681" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F681" s="4">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G681" s="4">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="682" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15473,13 +15478,13 @@
         <v>236</v>
       </c>
       <c r="D682" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F682" s="4">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G682" s="4">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="683" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15493,13 +15498,13 @@
         <v>236</v>
       </c>
       <c r="D683" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F683" s="4">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G683" s="4">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="684" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15513,10 +15518,10 @@
         <v>236</v>
       </c>
       <c r="D684" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F684" s="4">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G684" s="4">
         <v>270</v>
@@ -15533,13 +15538,13 @@
         <v>236</v>
       </c>
       <c r="D685" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F685" s="4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G685" s="4">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="686" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15553,13 +15558,13 @@
         <v>236</v>
       </c>
       <c r="D686" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F686" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G686" s="4">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="687" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15573,13 +15578,13 @@
         <v>236</v>
       </c>
       <c r="D687" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F687" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G687" s="4">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="688" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15593,13 +15598,13 @@
         <v>236</v>
       </c>
       <c r="D688" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F688" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G688" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="689" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15613,13 +15618,13 @@
         <v>236</v>
       </c>
       <c r="D689" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F689" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G689" s="4">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="690" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15633,13 +15638,13 @@
         <v>236</v>
       </c>
       <c r="D690" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F690" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G690" s="4">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="691" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15653,13 +15658,13 @@
         <v>236</v>
       </c>
       <c r="D691" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F691" s="4">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G691" s="4">
-        <v>140</v>
+        <v>210</v>
       </c>
     </row>
     <row r="692" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15673,13 +15678,13 @@
         <v>236</v>
       </c>
       <c r="D692" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F692" s="4">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G692" s="4">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="693" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15693,13 +15698,13 @@
         <v>236</v>
       </c>
       <c r="D693" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F693" s="4">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="G693" s="4">
-        <v>190</v>
+        <v>80</v>
       </c>
     </row>
     <row r="694" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15713,13 +15718,13 @@
         <v>236</v>
       </c>
       <c r="D694" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F694" s="4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G694" s="4">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="695" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15733,13 +15738,13 @@
         <v>236</v>
       </c>
       <c r="D695" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F695" s="4">
+        <v>150</v>
+      </c>
+      <c r="G695" s="4">
         <v>170</v>
-      </c>
-      <c r="G695" s="4">
-        <v>200</v>
       </c>
     </row>
     <row r="696" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15753,18 +15758,18 @@
         <v>236</v>
       </c>
       <c r="D696" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F696" s="4">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G696" s="4">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="697" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B697" s="12">
         <v>45112</v>
@@ -15773,13 +15778,13 @@
         <v>236</v>
       </c>
       <c r="D697" s="6" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="F697" s="4">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G697" s="4">
-        <v>190</v>
+        <v>130</v>
       </c>
     </row>
     <row r="698" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15793,13 +15798,13 @@
         <v>236</v>
       </c>
       <c r="D698" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F698" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="G698" s="4">
-        <v>240</v>
+        <v>190</v>
       </c>
     </row>
     <row r="699" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15813,13 +15818,13 @@
         <v>236</v>
       </c>
       <c r="D699" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F699" s="4">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="G699" s="4">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="700" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15833,13 +15838,13 @@
         <v>236</v>
       </c>
       <c r="D700" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F700" s="4">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G700" s="4">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="701" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15853,13 +15858,13 @@
         <v>236</v>
       </c>
       <c r="D701" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F701" s="4">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="G701" s="4">
-        <v>290</v>
+        <v>120</v>
       </c>
     </row>
     <row r="702" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15873,13 +15878,13 @@
         <v>236</v>
       </c>
       <c r="D702" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F702" s="4">
         <v>280</v>
       </c>
       <c r="G702" s="4">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="703" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15893,13 +15898,13 @@
         <v>236</v>
       </c>
       <c r="D703" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F703" s="4">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="G703" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="704" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15913,13 +15918,13 @@
         <v>236</v>
       </c>
       <c r="D704" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F704" s="4">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G704" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="705" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15933,13 +15938,13 @@
         <v>236</v>
       </c>
       <c r="D705" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F705" s="4">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="G705" s="4">
-        <v>290</v>
+        <v>170</v>
       </c>
     </row>
     <row r="706" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15953,13 +15958,13 @@
         <v>236</v>
       </c>
       <c r="D706" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F706" s="4">
+        <v>270</v>
+      </c>
+      <c r="G706" s="4">
         <v>290</v>
-      </c>
-      <c r="G706" s="4">
-        <v>310</v>
       </c>
     </row>
     <row r="707" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15973,13 +15978,13 @@
         <v>236</v>
       </c>
       <c r="D707" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F707" s="4">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="G707" s="4">
-        <v>220</v>
+        <v>310</v>
       </c>
     </row>
     <row r="708" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -15993,13 +15998,13 @@
         <v>236</v>
       </c>
       <c r="D708" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F708" s="4">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="G708" s="4">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="709" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16013,13 +16018,13 @@
         <v>236</v>
       </c>
       <c r="D709" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F709" s="4">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="G709" s="4">
-        <v>340</v>
+        <v>150</v>
       </c>
     </row>
     <row r="710" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16033,13 +16038,13 @@
         <v>236</v>
       </c>
       <c r="D710" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F710" s="4">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G710" s="4">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="711" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16053,13 +16058,13 @@
         <v>236</v>
       </c>
       <c r="D711" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F711" s="4">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="G711" s="4">
-        <v>240</v>
+        <v>310</v>
       </c>
     </row>
     <row r="712" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16073,13 +16078,13 @@
         <v>236</v>
       </c>
       <c r="D712" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F712" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G712" s="4">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="713" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16093,13 +16098,13 @@
         <v>236</v>
       </c>
       <c r="D713" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F713" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G713" s="4">
-        <v>320</v>
+        <v>210</v>
       </c>
     </row>
     <row r="714" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16113,13 +16118,13 @@
         <v>236</v>
       </c>
       <c r="D714" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F714" s="4">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G714" s="4">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="715" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16133,13 +16138,13 @@
         <v>236</v>
       </c>
       <c r="D715" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F715" s="4">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="G715" s="4">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="716" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16153,13 +16158,13 @@
         <v>236</v>
       </c>
       <c r="D716" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F716" s="4">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="G716" s="4">
-        <v>170</v>
+        <v>290</v>
       </c>
     </row>
     <row r="717" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16173,13 +16178,13 @@
         <v>236</v>
       </c>
       <c r="D717" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F717" s="4">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="G717" s="4">
-        <v>330</v>
+        <v>170</v>
       </c>
     </row>
     <row r="718" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16193,13 +16198,13 @@
         <v>236</v>
       </c>
       <c r="D718" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F718" s="4">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G718" s="4">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="719" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16213,13 +16218,13 @@
         <v>236</v>
       </c>
       <c r="D719" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F719" s="4">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="G719" s="4">
-        <v>230</v>
+        <v>320</v>
       </c>
     </row>
     <row r="720" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16233,13 +16238,13 @@
         <v>236</v>
       </c>
       <c r="D720" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F720" s="4">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G720" s="4">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="721" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16253,13 +16258,13 @@
         <v>236</v>
       </c>
       <c r="D721" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F721" s="4">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="G721" s="4">
-        <v>270</v>
+        <v>200</v>
       </c>
     </row>
     <row r="722" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16273,13 +16278,13 @@
         <v>236</v>
       </c>
       <c r="D722" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F722" s="4">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G722" s="4">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="723" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16293,13 +16298,13 @@
         <v>236</v>
       </c>
       <c r="D723" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F723" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G723" s="4">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="724" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16313,33 +16318,33 @@
         <v>236</v>
       </c>
       <c r="D724" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F724" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G724" s="4">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="725" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B725" s="12">
-        <v>45100</v>
+        <v>45112</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D725" s="6" t="s">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="F725" s="4">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="G725" s="4">
-        <v>290</v>
+        <v>190</v>
       </c>
     </row>
     <row r="726" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16353,13 +16358,13 @@
         <v>222</v>
       </c>
       <c r="D726" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F726" s="4">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G726" s="4">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="727" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16373,13 +16378,13 @@
         <v>222</v>
       </c>
       <c r="D727" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F727" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="G727" s="4">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="728" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16393,13 +16398,13 @@
         <v>222</v>
       </c>
       <c r="D728" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F728" s="4">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="G728" s="4">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="729" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16413,13 +16418,13 @@
         <v>222</v>
       </c>
       <c r="D729" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F729" s="4">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G729" s="4">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="730" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16433,13 +16438,13 @@
         <v>222</v>
       </c>
       <c r="D730" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F730" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G730" s="4">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="731" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16453,13 +16458,13 @@
         <v>222</v>
       </c>
       <c r="D731" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F731" s="4">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="G731" s="4">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="732" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16473,13 +16478,13 @@
         <v>222</v>
       </c>
       <c r="D732" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F732" s="4">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="G732" s="4">
-        <v>340</v>
+        <v>200</v>
       </c>
     </row>
     <row r="733" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16493,13 +16498,13 @@
         <v>222</v>
       </c>
       <c r="D733" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F733" s="4">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G733" s="4">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="734" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16513,13 +16518,13 @@
         <v>222</v>
       </c>
       <c r="D734" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F734" s="4">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="G734" s="4">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="735" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16533,13 +16538,13 @@
         <v>222</v>
       </c>
       <c r="D735" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F735" s="4">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G735" s="4">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="736" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16553,13 +16558,13 @@
         <v>222</v>
       </c>
       <c r="D736" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F736" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G736" s="4">
-        <v>210</v>
+        <v>130</v>
       </c>
     </row>
     <row r="737" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16573,13 +16578,13 @@
         <v>222</v>
       </c>
       <c r="D737" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F737" s="4">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="G737" s="4">
-        <v>340</v>
+        <v>210</v>
       </c>
     </row>
     <row r="738" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16593,13 +16598,13 @@
         <v>222</v>
       </c>
       <c r="D738" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F738" s="4">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G738" s="4">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="739" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16613,13 +16618,13 @@
         <v>222</v>
       </c>
       <c r="D739" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F739" s="4">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="G739" s="4">
-        <v>140</v>
+        <v>310</v>
       </c>
     </row>
     <row r="740" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16633,7 +16638,7 @@
         <v>222</v>
       </c>
       <c r="D740" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F740" s="4">
         <v>130</v>
@@ -16653,13 +16658,13 @@
         <v>222</v>
       </c>
       <c r="D741" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F741" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G741" s="4">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="742" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16673,13 +16678,13 @@
         <v>222</v>
       </c>
       <c r="D742" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F742" s="4">
         <v>200</v>
       </c>
       <c r="G742" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="743" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16693,13 +16698,13 @@
         <v>222</v>
       </c>
       <c r="D743" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F743" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G743" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="744" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16713,33 +16718,33 @@
         <v>222</v>
       </c>
       <c r="D744" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F744" s="4">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G744" s="4">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="745" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B745" s="12">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D745" s="6" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="F745" s="4">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G745" s="4">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="746" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16753,13 +16758,13 @@
         <v>236</v>
       </c>
       <c r="D746" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F746" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G746" s="4">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="747" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16773,13 +16778,13 @@
         <v>236</v>
       </c>
       <c r="D747" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F747" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G747" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="748" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16793,13 +16798,13 @@
         <v>236</v>
       </c>
       <c r="D748" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F748" s="4">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G748" s="4">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="749" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16813,13 +16818,13 @@
         <v>236</v>
       </c>
       <c r="D749" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F749" s="4">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="G749" s="4">
-        <v>310</v>
+        <v>260</v>
       </c>
     </row>
     <row r="750" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16833,13 +16838,13 @@
         <v>236</v>
       </c>
       <c r="D750" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F750" s="4">
+        <v>300</v>
+      </c>
+      <c r="G750" s="4">
         <v>310</v>
-      </c>
-      <c r="G750" s="4">
-        <v>330</v>
       </c>
     </row>
     <row r="751" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16853,13 +16858,13 @@
         <v>236</v>
       </c>
       <c r="D751" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F751" s="4">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G751" s="4">
-        <v>270</v>
+        <v>330</v>
       </c>
     </row>
     <row r="752" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16873,13 +16878,13 @@
         <v>236</v>
       </c>
       <c r="D752" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F752" s="4">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="G752" s="4">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="753" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16893,13 +16898,13 @@
         <v>236</v>
       </c>
       <c r="D753" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F753" s="4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G753" s="4">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="754" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16913,13 +16918,13 @@
         <v>236</v>
       </c>
       <c r="D754" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F754" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="G754" s="4">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="755" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16933,13 +16938,13 @@
         <v>236</v>
       </c>
       <c r="D755" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F755" s="4">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="G755" s="4">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="756" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16953,13 +16958,13 @@
         <v>236</v>
       </c>
       <c r="D756" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F756" s="4">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G756" s="4">
-        <v>330</v>
+        <v>360</v>
       </c>
     </row>
     <row r="757" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16973,13 +16978,13 @@
         <v>236</v>
       </c>
       <c r="D757" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F757" s="4">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="G757" s="4">
-        <v>240</v>
+        <v>330</v>
       </c>
     </row>
     <row r="758" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -16993,13 +16998,13 @@
         <v>236</v>
       </c>
       <c r="D758" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F758" s="4">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="G758" s="4">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="759" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17013,13 +17018,13 @@
         <v>236</v>
       </c>
       <c r="D759" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F759" s="4">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="G759" s="4">
-        <v>370</v>
+        <v>320</v>
       </c>
     </row>
     <row r="760" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17033,13 +17038,13 @@
         <v>236</v>
       </c>
       <c r="D760" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F760" s="4">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G760" s="4">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="761" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17053,13 +17058,13 @@
         <v>236</v>
       </c>
       <c r="D761" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F761" s="4">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="G761" s="4">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="762" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17073,13 +17078,13 @@
         <v>236</v>
       </c>
       <c r="D762" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F762" s="4">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="G762" s="4">
-        <v>290</v>
+        <v>200</v>
       </c>
     </row>
     <row r="763" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17093,13 +17098,13 @@
         <v>236</v>
       </c>
       <c r="D763" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F763" s="4">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="G763" s="4">
-        <v>190</v>
+        <v>290</v>
       </c>
     </row>
     <row r="764" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17113,33 +17118,33 @@
         <v>236</v>
       </c>
       <c r="D764" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F764" s="4">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G764" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="765" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B765" s="12">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="C765" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D765" s="6" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="F765" s="4">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G765" s="4">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="766" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17153,10 +17158,10 @@
         <v>236</v>
       </c>
       <c r="D766" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F766" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G766" s="4">
         <v>120</v>
@@ -17173,13 +17178,13 @@
         <v>236</v>
       </c>
       <c r="D767" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F767" s="4">
+        <v>100</v>
+      </c>
+      <c r="G767" s="4">
         <v>120</v>
-      </c>
-      <c r="G767" s="4">
-        <v>140</v>
       </c>
     </row>
     <row r="768" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17193,13 +17198,13 @@
         <v>236</v>
       </c>
       <c r="D768" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F768" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G768" s="4">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="769" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17213,7 +17218,7 @@
         <v>236</v>
       </c>
       <c r="D769" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F769" s="4">
         <v>130</v>
@@ -17233,13 +17238,13 @@
         <v>236</v>
       </c>
       <c r="D770" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F770" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G770" s="4">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="771" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17253,7 +17258,7 @@
         <v>236</v>
       </c>
       <c r="D771" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F771" s="4">
         <v>120</v>
@@ -17273,13 +17278,13 @@
         <v>236</v>
       </c>
       <c r="D772" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F772" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G772" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="773" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17293,13 +17298,13 @@
         <v>236</v>
       </c>
       <c r="D773" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F773" s="4">
         <v>110</v>
       </c>
       <c r="G773" s="4">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="774" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17313,13 +17318,13 @@
         <v>236</v>
       </c>
       <c r="D774" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F774" s="4">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="G774" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="775" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17333,13 +17338,13 @@
         <v>236</v>
       </c>
       <c r="D775" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F775" s="4">
+        <v>170</v>
+      </c>
+      <c r="G775" s="4">
         <v>200</v>
-      </c>
-      <c r="G775" s="4">
-        <v>230</v>
       </c>
     </row>
     <row r="776" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17353,13 +17358,13 @@
         <v>236</v>
       </c>
       <c r="D776" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F776" s="4">
         <v>200</v>
       </c>
       <c r="G776" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="777" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17373,10 +17378,10 @@
         <v>236</v>
       </c>
       <c r="D777" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F777" s="4">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="G777" s="4">
         <v>240</v>
@@ -17393,13 +17398,13 @@
         <v>236</v>
       </c>
       <c r="D778" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F778" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G778" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="779" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17413,13 +17418,13 @@
         <v>236</v>
       </c>
       <c r="D779" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F779" s="4">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G779" s="4">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="780" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17433,13 +17438,13 @@
         <v>236</v>
       </c>
       <c r="D780" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F780" s="4">
         <v>220</v>
       </c>
       <c r="G780" s="4">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="781" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17453,13 +17458,13 @@
         <v>236</v>
       </c>
       <c r="D781" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F781" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G781" s="4">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="782" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17473,13 +17478,13 @@
         <v>236</v>
       </c>
       <c r="D782" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F782" s="4">
         <v>210</v>
       </c>
       <c r="G782" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="783" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17493,13 +17498,13 @@
         <v>236</v>
       </c>
       <c r="D783" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F783" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G783" s="4">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="784" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17513,30 +17518,30 @@
         <v>236</v>
       </c>
       <c r="D784" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F784" s="4">
         <v>200</v>
       </c>
       <c r="G784" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="785" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B785" s="12">
-        <v>45077</v>
+        <v>45093</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D785" s="6" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="F785" s="4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G785" s="4">
         <v>220</v>
@@ -17553,13 +17558,13 @@
         <v>242</v>
       </c>
       <c r="D786" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F786" s="4">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="G786" s="4">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="787" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17573,13 +17578,13 @@
         <v>242</v>
       </c>
       <c r="D787" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F787" s="4">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G787" s="4">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="788" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17593,13 +17598,13 @@
         <v>242</v>
       </c>
       <c r="D788" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F788" s="4">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="G788" s="4">
-        <v>320</v>
+        <v>220</v>
       </c>
     </row>
     <row r="789" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17613,13 +17618,13 @@
         <v>242</v>
       </c>
       <c r="D789" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F789" s="4">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="G789" s="4">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="790" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17633,13 +17638,13 @@
         <v>242</v>
       </c>
       <c r="D790" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F790" s="4">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="G790" s="4">
-        <v>215</v>
+        <v>260</v>
       </c>
     </row>
     <row r="791" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17653,13 +17658,13 @@
         <v>242</v>
       </c>
       <c r="D791" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F791" s="4">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="G791" s="4">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="792" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17673,13 +17678,13 @@
         <v>242</v>
       </c>
       <c r="D792" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F792" s="4">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="G792" s="4">
-        <v>345</v>
+        <v>295</v>
       </c>
     </row>
     <row r="793" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17693,13 +17698,13 @@
         <v>242</v>
       </c>
       <c r="D793" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F793" s="4">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="G793" s="4">
-        <v>385</v>
+        <v>345</v>
       </c>
     </row>
     <row r="794" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17713,13 +17718,13 @@
         <v>242</v>
       </c>
       <c r="D794" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F794" s="4">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="G794" s="4">
-        <v>300</v>
+        <v>385</v>
       </c>
     </row>
     <row r="795" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17733,13 +17738,13 @@
         <v>242</v>
       </c>
       <c r="D795" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F795" s="4">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="G795" s="4">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="796" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17753,13 +17758,13 @@
         <v>242</v>
       </c>
       <c r="D796" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F796" s="4">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G796" s="4">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="797" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17773,13 +17778,13 @@
         <v>242</v>
       </c>
       <c r="D797" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F797" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G797" s="4">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="798" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17793,13 +17798,13 @@
         <v>242</v>
       </c>
       <c r="D798" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F798" s="4">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="G798" s="4">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="799" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17813,10 +17818,10 @@
         <v>242</v>
       </c>
       <c r="D799" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F799" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G799" s="4">
         <v>260</v>
@@ -17833,13 +17838,13 @@
         <v>242</v>
       </c>
       <c r="D800" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F800" s="4">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="G800" s="4">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="801" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17853,13 +17858,13 @@
         <v>242</v>
       </c>
       <c r="D801" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F801" s="4">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G801" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="802" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17873,13 +17878,13 @@
         <v>242</v>
       </c>
       <c r="D802" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F802" s="4">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="G802" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="803" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17893,33 +17898,33 @@
         <v>242</v>
       </c>
       <c r="D803" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F803" s="4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G803" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="804" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B804" s="12">
-        <v>44783</v>
+        <v>45077</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D804" s="6" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="F804" s="4">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="G804" s="4">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="805" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17933,13 +17938,13 @@
         <v>243</v>
       </c>
       <c r="D805" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F805" s="4">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G805" s="4">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="806" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17953,13 +17958,13 @@
         <v>243</v>
       </c>
       <c r="D806" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F806" s="4">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G806" s="4">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="807" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17973,13 +17978,13 @@
         <v>243</v>
       </c>
       <c r="D807" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F807" s="4">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="G807" s="4">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="808" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -17993,13 +17998,13 @@
         <v>243</v>
       </c>
       <c r="D808" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F808" s="4">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G808" s="4">
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="809" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18013,13 +18018,13 @@
         <v>243</v>
       </c>
       <c r="D809" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F809" s="4">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G809" s="4">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="810" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18033,13 +18038,13 @@
         <v>243</v>
       </c>
       <c r="D810" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F810" s="4">
+        <v>187</v>
+      </c>
+      <c r="G810" s="4">
         <v>200</v>
-      </c>
-      <c r="F810" s="4">
-        <v>150</v>
-      </c>
-      <c r="G810" s="4">
-        <v>161</v>
       </c>
     </row>
     <row r="811" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18053,13 +18058,13 @@
         <v>243</v>
       </c>
       <c r="D811" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F811" s="4">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="G811" s="4">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="812" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18073,13 +18078,13 @@
         <v>243</v>
       </c>
       <c r="D812" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F812" s="4">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G812" s="4">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="813" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18093,13 +18098,13 @@
         <v>243</v>
       </c>
       <c r="D813" s="6" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="F813" s="4">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="G813" s="4">
-        <v>135</v>
+        <v>216</v>
       </c>
     </row>
     <row r="814" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18113,13 +18118,13 @@
         <v>243</v>
       </c>
       <c r="D814" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F814" s="4">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="G814" s="4">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="815" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18133,13 +18138,13 @@
         <v>243</v>
       </c>
       <c r="D815" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F815" s="4">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G815" s="4">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="816" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18153,13 +18158,13 @@
         <v>243</v>
       </c>
       <c r="D816" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F816" s="4">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G816" s="4">
-        <v>173</v>
+        <v>145</v>
       </c>
     </row>
     <row r="817" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18173,13 +18178,13 @@
         <v>243</v>
       </c>
       <c r="D817" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F817" s="4">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G817" s="4">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="818" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18193,13 +18198,13 @@
         <v>243</v>
       </c>
       <c r="D818" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F818" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G818" s="4">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="819" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18213,13 +18218,13 @@
         <v>243</v>
       </c>
       <c r="D819" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F819" s="4">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="G819" s="4">
-        <v>320</v>
+        <v>199</v>
       </c>
     </row>
     <row r="820" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18233,13 +18238,13 @@
         <v>243</v>
       </c>
       <c r="D820" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F820" s="4">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="G820" s="4">
-        <v>413</v>
+        <v>320</v>
       </c>
     </row>
     <row r="821" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18253,13 +18258,13 @@
         <v>243</v>
       </c>
       <c r="D821" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F821" s="4">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G821" s="4">
-        <v>470</v>
+        <v>413</v>
       </c>
     </row>
     <row r="822" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18273,13 +18278,13 @@
         <v>243</v>
       </c>
       <c r="D822" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F822" s="4">
-        <v>530</v>
-      </c>
-      <c r="G822" s="4" t="s">
-        <v>244</v>
+        <v>450</v>
+      </c>
+      <c r="G822" s="4">
+        <v>470</v>
       </c>
     </row>
     <row r="823" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18293,10 +18298,10 @@
         <v>243</v>
       </c>
       <c r="D823" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F823" s="4">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="G823" s="4" t="s">
         <v>244</v>
@@ -18313,13 +18318,13 @@
         <v>243</v>
       </c>
       <c r="D824" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F824" s="4">
-        <v>450</v>
-      </c>
-      <c r="G824" s="4">
-        <v>478</v>
+        <v>510</v>
+      </c>
+      <c r="G824" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="825" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18333,13 +18338,13 @@
         <v>243</v>
       </c>
       <c r="D825" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F825" s="4">
-        <v>520</v>
-      </c>
-      <c r="G825" s="4" t="s">
-        <v>244</v>
+        <v>450</v>
+      </c>
+      <c r="G825" s="4">
+        <v>478</v>
       </c>
     </row>
     <row r="826" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18353,10 +18358,10 @@
         <v>243</v>
       </c>
       <c r="D826" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F826" s="4">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="G826" s="4" t="s">
         <v>244</v>
@@ -18373,10 +18378,10 @@
         <v>243</v>
       </c>
       <c r="D827" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F827" s="4">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G827" s="4" t="s">
         <v>244</v>
@@ -18393,13 +18398,13 @@
         <v>243</v>
       </c>
       <c r="D828" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F828" s="4">
-        <v>430</v>
-      </c>
-      <c r="G828" s="4">
-        <v>444</v>
+        <v>540</v>
+      </c>
+      <c r="G828" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="829" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -18413,17 +18418,34 @@
         <v>243</v>
       </c>
       <c r="D829" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F829" s="4">
+        <v>430</v>
+      </c>
+      <c r="G829" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A830" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B830" s="12">
+        <v>44783</v>
+      </c>
+      <c r="C830" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D830" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F829" s="4">
+      <c r="F830" s="4">
         <v>380</v>
       </c>
-      <c r="G829" s="4">
+      <c r="G830" s="4">
         <v>410</v>
       </c>
-    </row>
-    <row r="830" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="6"/>
     </row>
     <row r="831" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D831" s="6"/>
@@ -19133,7 +19155,11 @@
     <row r="1066" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1066" s="6"/>
     </row>
+    <row r="1067" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1067" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E240" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E241" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
+++ b/Input_Files/DEC_Ponds_Sediment_Mapping_Depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\DEC_Ponds\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF35611-0C1B-4712-960A-DAB5683B2242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B637D-69C1-4C63-960E-AA67357A1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2835" yWindow="960" windowWidth="25125" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,8 +1089,8 @@
   <dimension ref="A1:Z1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G354" sqref="G354"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G410" sqref="G410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9881,10 +9881,10 @@
         <v>200</v>
       </c>
       <c r="F402" s="4">
+        <v>320</v>
+      </c>
+      <c r="G402" s="4">
         <v>335</v>
-      </c>
-      <c r="G402" s="4">
-        <v>320</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -10041,10 +10041,10 @@
         <v>37</v>
       </c>
       <c r="F410" s="4">
+        <v>310</v>
+      </c>
+      <c r="G410" s="4">
         <v>320</v>
-      </c>
-      <c r="G410" s="4">
-        <v>310</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
